--- a/data/trans_dic/P18_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>78,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>69,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>62,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>80,02%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>73,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>75,44%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>65,85%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 22,36</t>
+          <t>77,65; 89,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 20,02</t>
+          <t>77,79; 89,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,77; 30,46</t>
+          <t>62,97; 85,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 20,28</t>
+          <t>74,95; 88,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,86; 32,18</t>
+          <t>46,36; 80,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 25,23</t>
+          <t>62,56; 74,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,75; 31,49</t>
+          <t>69,71; 81,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 33,58</t>
+          <t>62,59; 75,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,13</t>
+          <t>62,91; 75,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,14</t>
+          <t>55,65; 70,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 28,51</t>
+          <t>71,63; 80,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,71</t>
+          <t>75,77; 84,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>65,95; 78,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>70,45; 80,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>55,79; 71,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>73,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>67,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>81,8%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>72,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,49</t>
+          <t>76,57; 90,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 26,32</t>
+          <t>79,97; 91,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 27,73</t>
+          <t>71,48; 88,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 27,74</t>
+          <t>68,32; 85,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,75; 31,3</t>
+          <t>70,72; 86,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 26,26</t>
+          <t>68,82; 82,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,99; 35,08</t>
+          <t>69,91; 83,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,74; 39,49</t>
+          <t>64,45; 79,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 24,94</t>
+          <t>59,53; 74,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,78</t>
+          <t>64,89; 80,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,88</t>
+          <t>74,84; 84,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 31,84</t>
+          <t>77,08; 86,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>71,57; 82,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>66,58; 78,33</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70,38; 80,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>58,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>88,36%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>72,54%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>67,13%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>54,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 21,92</t>
+          <t>78,49; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 28,66</t>
+          <t>58,94; 93,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,21; 51,86</t>
+          <t>27,54; 83,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 37,76</t>
+          <t>45,02; 89,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 25,22</t>
+          <t>18,99; 73,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 15,55</t>
+          <t>68,36; 94,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 29,74</t>
+          <t>83,56; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 38,18</t>
+          <t>71,44; 94,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 20,44</t>
+          <t>46,17; 78,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 19,18</t>
+          <t>43,71; 76,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 37,03</t>
+          <t>78,57; 95,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 33,98</t>
+          <t>78,56; 95,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>50,22; 85,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>53,8; 80,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>34,71; 68,86</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>75,06%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>68,56%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,93</t>
+          <t>81,27; 89,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,47</t>
+          <t>80,2; 88,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 27,89</t>
+          <t>69,0; 83,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,94</t>
+          <t>73,17; 84,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 28,66</t>
+          <t>59,41; 78,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 22,99</t>
+          <t>68,63; 77,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,9</t>
+          <t>74,83; 82,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,85</t>
+          <t>67,62; 76,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,15</t>
+          <t>63,29; 72,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,18</t>
+          <t>61,04; 71,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 27,21</t>
+          <t>75,73; 82,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,73; 27,04</t>
+          <t>78,26; 84,27</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>70,4; 78,84</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69,52; 77,1</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>62,43; 72,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>308924</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>363758</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>286148</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>312053</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>358923</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>301156</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>387523</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>293055</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>280712</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>348340</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>610080</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>751282</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>579203</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>592765</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>707264</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>283993; 327845</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>334547; 386628</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>230577; 314304</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>285425; 337502</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>239177; 412949</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>272376; 325918</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>354685; 414202</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>263552; 316683</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>254753; 304846</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>310606; 392984</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>573803; 646088</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>711379; 789060</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>519214; 615170</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>553556; 629583</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>599144; 771739</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>257395</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>310390</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>261506</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>252326</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>327243</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>264996</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>331571</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>247140</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>226188</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>315182</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>522391</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>641960</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>508646</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>478514</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>642425</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>233304; 274588</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>287405; 330020</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>227551; 282925</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>220399; 276797</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>291597; 356295</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>240951; 288008</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>297350; 355758</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>218118; 268162</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>199436; 250550</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>281092; 347359</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>490083; 552703</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>604879; 679514</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>470012; 541650</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>437848; 515085</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>595100; 684643</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81513</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46669</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60707</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56442</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69255</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>97790</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70239</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50817</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>68164</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>148547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>179303</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>116908</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>111523</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>124606</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>66577; 84826</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>59984; 95461</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21921; 66839</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38535; 76180</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22677; 88207</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56470; 77839</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>84538; 101166</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58264; 77365</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37183; 63278</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48677; 85563</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>131558; 159759</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>159418; 194335</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>80931; 137346</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>89379; 133471</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>80097; 158883</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>645610</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>755660</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>594323</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>625085</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>742609</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>635408</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>816884</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>610434</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>557717</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>731686</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1281018</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1572545</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1204757</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1182803</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1474295</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>613847; 672849</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>714798; 791881</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>527235; 639511</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>577307; 663444</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>622362; 823312</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>595727; 674983</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>774754; 856939</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>568683; 644359</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>519294; 596281</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>673060; 784800</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1229405; 1335834</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1507776; 1623502</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1130025; 1265499</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1118992; 1240982</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1342423; 1563216</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
